--- a/招式.xlsx
+++ b/招式.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\fc.dnd5e.io\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\18082\Documents\9 CodeProjects\fc.dnd5e.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD7800F0-414B-47BF-BBA5-BAC9F49906C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C503FF-72D1-463C-B6DC-CC06DDBDFD52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="107">
   <si>
     <t>内功</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -341,10 +341,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>攻守</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>正奇</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -410,6 +406,58 @@
   </si>
   <si>
     <t>每点内力伤害增益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气势（行动力）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武学套装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性格增益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内功效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻守道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加抽卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删卡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -747,10 +795,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:I39"/>
+  <dimension ref="C2:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="H13" sqref="H10:H13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -765,15 +813,18 @@
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="3:14" x14ac:dyDescent="0.2">
       <c r="D2" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="3" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="L2" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="3:14" x14ac:dyDescent="0.2">
       <c r="D3" s="1" t="s">
         <v>57</v>
       </c>
@@ -781,22 +832,33 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:14" x14ac:dyDescent="0.2">
       <c r="D4" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="6" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="L4" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="L5" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="3:14" x14ac:dyDescent="0.2">
       <c r="D6" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="L6" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
@@ -811,10 +873,16 @@
         <v>60</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="3:9" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="3:14" x14ac:dyDescent="0.2">
       <c r="D9" s="2">
         <v>2</v>
       </c>
@@ -830,8 +898,11 @@
       <c r="I9" s="4" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="10" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="N9" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>76</v>
       </c>
@@ -844,8 +915,11 @@
       <c r="F10" s="4" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="11" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="N10" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="3:14" x14ac:dyDescent="0.2">
       <c r="D11" s="2">
         <v>4</v>
       </c>
@@ -855,8 +929,14 @@
       <c r="F11" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="12" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="M11" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>75</v>
       </c>
@@ -864,10 +944,10 @@
         <v>5</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>66</v>
@@ -875,21 +955,27 @@
       <c r="I12" s="4" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="13" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="N12" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="3:14" x14ac:dyDescent="0.2">
       <c r="D13" s="2">
         <v>6</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="3:9" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D14" s="2">
         <v>7</v>
@@ -901,69 +987,75 @@
         <v>68</v>
       </c>
       <c r="H14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="3:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="3:14" x14ac:dyDescent="0.2">
       <c r="D15" s="2">
         <v>8</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="H15" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E25" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E26" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C33" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C33" s="1" t="s">
+    <row r="34" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C34" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C35" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C38" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C34" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C35" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C38" s="1" t="s">
+    <row r="39" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C39" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C39" s="1" t="s">
-        <v>92</v>
+      <c r="E39" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
